--- a/effort.xlsx
+++ b/effort.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Week 1</t>
   </si>
@@ -661,6 +661,15 @@
   </si>
   <si>
     <t>Effort (Hours)</t>
+  </si>
+  <si>
+    <t>pre-req.</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>2 hafta</t>
   </si>
 </sst>
 </file>
@@ -735,10 +744,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1021,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1045,7 @@
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -1052,15 +1061,21 @@
       <c r="E1" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="7">
         <v>44132.333333333336</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>44138.708333333336</v>
       </c>
       <c r="D2" t="s">
@@ -1069,11 +1084,14 @@
       <c r="E2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" t="s">
         <v>31</v>
       </c>
@@ -1081,26 +1099,32 @@
         <v>1</v>
       </c>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="D4" t="s">
         <v>32</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7">
         <v>44139.333333333336</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>44145.708333333336</v>
       </c>
       <c r="D5" t="s">
@@ -1109,21 +1133,27 @@
       <c r="E5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" t="s">
         <v>30</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -1137,17 +1167,20 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7">
         <v>44153.333333333336</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>44159.708333333336</v>
       </c>
       <c r="D8" t="s">
@@ -1156,241 +1189,301 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="6">
+      <c r="B10" s="7">
         <v>44160.333333333336</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>44166.708333333336</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="7">
         <v>44167.333333333336</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>44173.708333333336</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
       <c r="D14" t="s">
         <v>19</v>
       </c>
       <c r="E14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="H16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="7">
         <v>44174.333333333336</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="7">
         <v>44180.708333333336</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
       </c>
       <c r="E17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" t="s">
         <v>16</v>
       </c>
       <c r="E19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
       <c r="D20" t="s">
         <v>53</v>
       </c>
       <c r="E20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
       <c r="D21" t="s">
         <v>55</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
       <c r="D22" t="s">
         <v>56</v>
       </c>
       <c r="E22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="H22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
       <c r="D23" t="s">
         <v>17</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="7">
         <v>44181.333333333336</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="7">
         <v>44187.708333333336</v>
       </c>
       <c r="D24" t="s">
         <v>50</v>
       </c>
       <c r="E24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
       <c r="D25" t="s">
         <v>51</v>
       </c>
       <c r="E25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="H25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
       <c r="D26" t="s">
         <v>52</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
       <c r="D27" t="s">
         <v>54</v>
       </c>
       <c r="E27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1404,45 +1497,54 @@
         <v>49</v>
       </c>
       <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="7">
         <v>44195.333333333336</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="7">
         <v>44201.708333333336</v>
       </c>
       <c r="D29" t="s">
         <v>47</v>
       </c>
       <c r="E29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
       <c r="D30" t="s">
         <v>48</v>
       </c>
       <c r="E30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="H30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="7">
         <v>44202.333333333336</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="7">
         <v>44208.708333333336</v>
       </c>
       <c r="D31" t="s">
@@ -1451,59 +1553,74 @@
       <c r="E31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
       <c r="D32" t="s">
         <v>44</v>
       </c>
       <c r="E32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
       <c r="D33" t="s">
         <v>45</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
       <c r="D34" t="s">
         <v>46</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
       <c r="D35" t="s">
         <v>13</v>
       </c>
       <c r="E35">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+      <c r="H35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="7">
         <v>44209.333333333336</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="7">
         <v>44215.708333333336</v>
       </c>
       <c r="D36" t="s">
@@ -1512,98 +1629,134 @@
       <c r="E36">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="H36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
       <c r="D37" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="E37">
+        <v>12</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
       <c r="D38" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
       <c r="D39" t="s">
         <v>36</v>
       </c>
       <c r="E39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
       <c r="D40" t="s">
         <v>37</v>
       </c>
       <c r="E40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
+      <c r="H40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
       <c r="D41" t="s">
         <v>38</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
       <c r="D42" t="s">
         <v>39</v>
       </c>
       <c r="E42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
       <c r="D43" t="s">
         <v>40</v>
       </c>
       <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="H43">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
       <c r="D44" t="s">
         <v>41</v>
       </c>
       <c r="E44">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
+      <c r="H44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
       <c r="D45" t="s">
         <v>42</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1611,6 +1764,25 @@
     <sortCondition ref="A17:A60"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="B36:B45"/>
+    <mergeCell ref="C36:C45"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="A31:A35"/>
     <mergeCell ref="A36:A45"/>
     <mergeCell ref="B2:B4"/>
@@ -1622,25 +1794,6 @@
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="B36:B45"/>
-    <mergeCell ref="C36:C45"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
